--- a/ig/ch-epr-fhir/StructureDefinition-ChAuditEventIti90Read.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ChAuditEventIti90Read.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10005" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10005" uniqueCount="806">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T13:39:01+00:00</t>
+    <t>2025-12-18T15:54:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -570,7 +570,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://profiles.ihe.net/ITI/BALP/ValueSet/AllReadVS</t>
+    <t>https://profiles.ihe.net/ITI/BALP/ValueSet/AllReadVS|1.1.4</t>
   </si>
   <si>
     <t>AuditEvent.subtype:iti90</t>
@@ -1777,7 +1777,7 @@
     <t>Institutional policies for privacy and security may optionally fall under different accountability rules based on data life cycle. This provides a differentiating value for those cases.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/object-lifecycle-events|5.2.0</t>
+    <t>http://hl7.org/fhir/ValueSet/object-lifecycle-events|5.3.0-ballot-tc1</t>
   </si>
   <si>
     <t>target of ObservationEvent[code="lifecycle"].value</t>
@@ -2320,6 +2320,9 @@
     <t>AuditEvent.entity:data.what.type</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
     <t>AuditEvent.entity:data.what.identifier</t>
   </si>
   <si>
@@ -2338,6 +2341,9 @@
     <t>AuditEvent.entity:data.what.identifier.type</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
     <t>AuditEvent.entity:data.what.identifier.system</t>
   </si>
   <si>
@@ -2351,6 +2357,10 @@
   </si>
   <si>
     <t>AuditEvent.entity:data.what.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
   </si>
   <si>
     <t>AuditEvent.entity:data.what.display</t>
@@ -2375,7 +2385,7 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
-    <t>https://profiles.ihe.net/ITI/BALP/ValueSet/RestObjectRoles</t>
+    <t>https://profiles.ihe.net/ITI/BALP/ValueSet/RestObjectRoles|1.1.4</t>
   </si>
   <si>
     <t>AuditEvent.entity:data.lifecycle</t>
@@ -2894,7 +2904,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.39453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.7734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -13142,7 +13152,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
         <v>421</v>
       </c>
@@ -13506,7 +13516,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>424</v>
       </c>
@@ -14828,7 +14838,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
         <v>436</v>
       </c>
@@ -19762,7 +19772,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="141" hidden="true">
+    <row r="141">
       <c r="A141" t="s" s="2">
         <v>484</v>
       </c>
@@ -27653,7 +27663,7 @@
         <v>641</v>
       </c>
       <c r="Z206" t="s" s="2">
-        <v>642</v>
+        <v>737</v>
       </c>
       <c r="AA206" t="s" s="2">
         <v>81</v>
@@ -27706,7 +27716,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>645</v>
@@ -27735,7 +27745,7 @@
         <v>646</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M207" t="s" s="2">
         <v>648</v>
@@ -27826,7 +27836,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>653</v>
@@ -27944,7 +27954,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>655</v>
@@ -28064,7 +28074,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>657</v>
@@ -28186,7 +28196,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>667</v>
@@ -28255,7 +28265,7 @@
         <v>672</v>
       </c>
       <c r="Z211" t="s" s="2">
-        <v>673</v>
+        <v>744</v>
       </c>
       <c r="AA211" t="s" s="2">
         <v>81</v>
@@ -28308,7 +28318,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>676</v>
@@ -28430,7 +28440,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>685</v>
@@ -28459,7 +28469,7 @@
         <v>218</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M213" t="s" s="2">
         <v>687</v>
@@ -28550,7 +28560,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>693</v>
@@ -28668,7 +28678,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>699</v>
@@ -28694,7 +28704,7 @@
         <v>94</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L215" t="s" s="2">
         <v>701</v>
@@ -28788,7 +28798,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>707</v>
@@ -28908,7 +28918,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>535</v>
@@ -28956,7 +28966,7 @@
         <v>81</v>
       </c>
       <c r="S217" t="s" s="2">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="T217" t="s" s="2">
         <v>81</v>
@@ -29030,7 +29040,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>546</v>
@@ -29076,7 +29086,7 @@
         <v>81</v>
       </c>
       <c r="S218" t="s" s="2">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="T218" t="s" s="2">
         <v>81</v>
@@ -29095,7 +29105,7 @@
       </c>
       <c r="Y218" s="2"/>
       <c r="Z218" t="s" s="2">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="AA218" t="s" s="2">
         <v>81</v>
@@ -29148,7 +29158,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>556</v>
@@ -29270,7 +29280,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>565</v>
@@ -29299,7 +29309,7 @@
         <v>151</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="M220" t="s" s="2">
         <v>567</v>
@@ -29392,7 +29402,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>574</v>
@@ -29514,7 +29524,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>583</v>
@@ -29634,7 +29644,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>588</v>
@@ -29756,7 +29766,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>596</v>
@@ -29876,7 +29886,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>602</v>
@@ -29994,7 +30004,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>603</v>
@@ -30114,7 +30124,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>604</v>
@@ -30236,7 +30246,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>605</v>
@@ -30354,7 +30364,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>609</v>
@@ -30476,13 +30486,13 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>515</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="D230" t="s" s="2">
         <v>516</v>
@@ -30507,7 +30517,7 @@
         <v>238</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="M230" t="s" s="2">
         <v>518</v>
@@ -30600,7 +30610,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>526</v>
@@ -30718,7 +30728,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>527</v>
@@ -30838,7 +30848,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>528</v>
@@ -30960,7 +30970,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>529</v>
@@ -31078,7 +31088,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>624</v>
@@ -31196,7 +31206,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>626</v>
@@ -31316,7 +31326,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>630</v>
@@ -31436,7 +31446,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>637</v>
@@ -31503,7 +31513,7 @@
         <v>641</v>
       </c>
       <c r="Z238" t="s" s="2">
-        <v>642</v>
+        <v>737</v>
       </c>
       <c r="AA238" t="s" s="2">
         <v>81</v>
@@ -31556,7 +31566,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>645</v>
@@ -31676,7 +31686,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>653</v>
@@ -31794,7 +31804,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>655</v>
@@ -31914,7 +31924,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>657</v>
@@ -32036,7 +32046,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>667</v>
@@ -32105,7 +32115,7 @@
         <v>672</v>
       </c>
       <c r="Z243" t="s" s="2">
-        <v>673</v>
+        <v>744</v>
       </c>
       <c r="AA243" t="s" s="2">
         <v>81</v>
@@ -32158,7 +32168,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>676</v>
@@ -32280,7 +32290,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>685</v>
@@ -32309,7 +32319,7 @@
         <v>218</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="M245" t="s" s="2">
         <v>687</v>
@@ -32400,7 +32410,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>693</v>
@@ -32518,7 +32528,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>699</v>
@@ -32544,7 +32554,7 @@
         <v>94</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L247" t="s" s="2">
         <v>701</v>
@@ -32638,7 +32648,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>707</v>
@@ -32758,7 +32768,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>535</v>
@@ -32806,7 +32816,7 @@
         <v>81</v>
       </c>
       <c r="S249" t="s" s="2">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="T249" t="s" s="2">
         <v>81</v>
@@ -32880,7 +32890,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>546</v>
@@ -32926,7 +32936,7 @@
         <v>81</v>
       </c>
       <c r="S250" t="s" s="2">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="T250" t="s" s="2">
         <v>81</v>
@@ -33000,7 +33010,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>556</v>
@@ -33122,7 +33132,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>565</v>
@@ -33244,7 +33254,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>574</v>
@@ -33366,7 +33376,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>583</v>
@@ -33486,7 +33496,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>588</v>
@@ -33608,7 +33618,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>596</v>
@@ -33728,7 +33738,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>602</v>
@@ -33846,7 +33856,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>603</v>
@@ -33966,7 +33976,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>604</v>
@@ -34088,7 +34098,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>605</v>
@@ -34206,7 +34216,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>609</v>
@@ -34328,12 +34338,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP261">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
